--- a/biology/Botanique/Jardin_du_Regard-de-la-Lanterne/Jardin_du_Regard-de-la-Lanterne.xlsx
+++ b/biology/Botanique/Jardin_du_Regard-de-la-Lanterne/Jardin_du_Regard-de-la-Lanterne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin du Regard-de-la-Lanterne est un espace vert du 19e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin du Regard-de-la-Lanterne est situé 3, rue Augustin-Thierry, dans le 19e arrondissement de Paris, à proximité immédiate de la place des Fêtes.
 Ce site est desservi par les lignes 7 bis et 11 à la station Place des Fêtes et par la ligne 11 à la station Télégraphe.
@@ -544,9 +558,11 @@
           <t>Aménagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une superficie de 0,099 4 ha[1], le jardin est pris entre les barres de logement qui voisinent la place des Fêtes. Le jardin est composé autour d'un monument historique, le regard de la Lanterne[2], qui sert de fabrique de jardin. Cet espace vert dispose d'une aire de jeu pour enfants.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie de 0,099 4 ha, le jardin est pris entre les barres de logement qui voisinent la place des Fêtes. Le jardin est composé autour d'un monument historique, le regard de la Lanterne, qui sert de fabrique de jardin. Cet espace vert dispose d'une aire de jeu pour enfants.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit son nom au regard de la Lanterne.
 </t>
@@ -606,7 +624,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin du Regard-de-la-Lanterne a été aménagé en 1975.
 </t>
